--- a/bioSample/bioSample_3067.xlsx
+++ b/bioSample/bioSample_3067.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_3067.xlsx
+++ b/bioSample/bioSample_3067.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -139,6 +139,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -223,7 +224,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -231,9 +232,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.07"/>
@@ -537,6 +538,9 @@
       </c>
       <c r="I10" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
